--- a/Data/EC/NIT-9002487031.xlsx
+++ b/Data/EC/NIT-9002487031.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02FF4AC0-C2D8-4D30-A0BD-3FC0DEDA406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B202A4BF-53C6-41B3-8D54-F74C66EF8D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82A6BFEA-E5CB-4333-9B61-30EEAA41D8C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{973DF531-C223-4C3C-802A-25D2CFDEEAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,25 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>94483278</t>
+  </si>
+  <si>
+    <t>EIDER PIMENTEL CALDON</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1047427860</t>
+  </si>
+  <si>
+    <t>YINETH PAOLA BALLESTAS FERIA</t>
+  </si>
+  <si>
+    <t>1116435458</t>
+  </si>
+  <si>
+    <t>JORGE ALBERTO SANTAMARIA</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1118288813</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA ORTEGA OSPINA</t>
+  </si>
+  <si>
     <t>22790491</t>
   </si>
   <si>
     <t>EMILDA ISABEL ATENCIA PALMERA</t>
   </si>
   <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1118288813</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA ORTEGA OSPINA</t>
-  </si>
-  <si>
-    <t>1116435458</t>
-  </si>
-  <si>
-    <t>JORGE ALBERTO SANTAMARIA</t>
+    <t>14899808</t>
+  </si>
+  <si>
+    <t>JHON FREDY GUTIERREZ CASTILLO</t>
   </si>
   <si>
     <t>1047446376</t>
@@ -92,10 +116,16 @@
     <t>ANGEL DE JESUS MESTRA ZULETA</t>
   </si>
   <si>
-    <t>14899808</t>
-  </si>
-  <si>
-    <t>JHON FREDY GUTIERREZ CASTILLO</t>
+    <t>1143338624</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS PULIDO ANAYA</t>
+  </si>
+  <si>
+    <t>80812126</t>
+  </si>
+  <si>
+    <t>HENIEK YITZAK HERRERA RAMIREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E61A8C-B682-47ED-B074-EE4FE84EE7AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FDC989-78DF-D13B-A8A5-625C887480C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EE4EFC-63C3-4364-9AC9-BE043F8D3515}">
-  <dimension ref="B2:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4AFA32-C6B2-489A-9E93-264B4C8B7AB9}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -885,7 +915,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +960,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +992,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>226320</v>
+        <v>502320</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +1008,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1038,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="G16" s="18">
-        <v>650000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1052,19 +1082,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>62720</v>
+        <v>34000</v>
       </c>
       <c r="G17" s="18">
-        <v>1568000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1075,19 +1105,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>35600</v>
+        <v>32000</v>
       </c>
       <c r="G18" s="18">
-        <v>890000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1098,75 +1128,259 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G19" s="18">
-        <v>850000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="18">
+        <v>35600</v>
+      </c>
+      <c r="G20" s="18">
+        <v>890000</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="18">
+        <v>62720</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1568000</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G22" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G24" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="24">
-        <v>68000</v>
-      </c>
-      <c r="G20" s="24">
-        <v>1700000</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="F25" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="H25" s="1" t="s">
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="E28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="24">
+        <v>36000</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002487031.xlsx
+++ b/Data/EC/NIT-9002487031.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B202A4BF-53C6-41B3-8D54-F74C66EF8D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C26B5A91-FE75-4B6D-85A6-FE104B918838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{973DF531-C223-4C3C-802A-25D2CFDEEAC4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD5DBE55-DCE5-4DEE-91DC-23351196B6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,24 +65,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>94483278</t>
-  </si>
-  <si>
-    <t>EIDER PIMENTEL CALDON</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1047427860</t>
-  </si>
-  <si>
-    <t>YINETH PAOLA BALLESTAS FERIA</t>
-  </si>
-  <si>
     <t>1116435458</t>
   </si>
   <si>
@@ -114,18 +96,6 @@
   </si>
   <si>
     <t>ANGEL DE JESUS MESTRA ZULETA</t>
-  </si>
-  <si>
-    <t>1143338624</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS PULIDO ANAYA</t>
-  </si>
-  <si>
-    <t>80812126</t>
-  </si>
-  <si>
-    <t>HENIEK YITZAK HERRERA RAMIREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -224,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -439,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FDC989-78DF-D13B-A8A5-625C887480C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5D7F80-BF3B-FACC-F2B9-C6876DC110DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4AFA32-C6B2-489A-9E93-264B4C8B7AB9}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1E173-4914-4F89-B28E-7649663BD4BA}">
+  <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -915,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -960,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -992,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>502320</v>
+        <v>226320</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1008,17 +978,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1045,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1068,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34000</v>
+        <v>35600</v>
       </c>
       <c r="G16" s="18">
-        <v>0</v>
+        <v>890000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1082,19 +1052,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>34000</v>
+        <v>62720</v>
       </c>
       <c r="G17" s="18">
-        <v>0</v>
+        <v>1568000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1105,19 +1075,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="G18" s="18">
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1128,259 +1098,75 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>32000</v>
+        <v>68000</v>
       </c>
       <c r="G19" s="18">
-        <v>0</v>
+        <v>1700000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="18">
-        <v>35600</v>
-      </c>
-      <c r="G20" s="18">
-        <v>890000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="18">
-        <v>62720</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1568000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="18">
-        <v>68000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1700000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="E20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="24">
         <v>34000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G20" s="24">
         <v>850000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="B25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="24">
-        <v>36000</v>
-      </c>
-      <c r="G28" s="24">
-        <v>0</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="C26" s="32"/>
+      <c r="H26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002487031.xlsx
+++ b/Data/EC/NIT-9002487031.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C26B5A91-FE75-4B6D-85A6-FE104B918838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9306A2B-D26D-4786-B765-60CDAD123298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD5DBE55-DCE5-4DEE-91DC-23351196B6B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CA44375-D6AD-4C62-A7D1-8B4C8D8F5224}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -194,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -403,29 +403,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,19 +444,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5D7F80-BF3B-FACC-F2B9-C6876DC110DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503452CF-81F1-B450-69F7-E803EFADB966}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1E173-4914-4F89-B28E-7649663BD4BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B4B374-298A-440B-9886-6C8A45EC30C6}">
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -883,49 +889,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -933,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -949,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9002487031</v>
       </c>
@@ -965,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>226320</v>
       </c>
@@ -1034,18 +1040,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>35600</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>890000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1057,18 +1063,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>62720</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1568000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1080,18 +1086,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>26000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>650000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1103,47 +1109,47 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>68000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1700000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="26">
         <v>34000</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="26">
         <v>850000</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="34"/>
       <c r="H25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1151,10 +1157,10 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="34"/>
       <c r="H26" s="1" t="s">
         <v>30</v>
       </c>
